--- a/frontend-cemos/public/assets/content/economia/1-economia-br/script/vf1.xlsx
+++ b/frontend-cemos/public/assets/content/economia/1-economia-br/script/vf1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>bibliografia_id</t>
+          <t>bibliografia_titulo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Em 1945, a Carta das Nações Unidas foi negociada em San Francisco por cinquenta países com o objetivo de preservar as gerações vindouras do flagelo da guerra.</t>
+          <t>A população é fundamental para a economia pois representa tanto o potencial de consumidores quanto a oferta de mão de obra (população economicamente ativa).</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A Carta das Nações Unidas foi negociada em 1945 com o principal objetivo de criar uma aliança militar permanente entre os vencedores da Segunda Guerra Mundial.</t>
+          <t>Na análise econômica moderna, a evolução populacional é irrelevante, pois apenas o estoque de capital determina o crescimento e o consumo.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A Carta da ONU tinha como principal finalidade "preservar as gerações vindouras do flagelo da guerra".</t>
+          <t>A população atua na economia pelo lado da demanda (consumo) e da oferta (trabalho/produção).</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,32 +512,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A principal obrigação dos membros da ONU, conforme o Artigo 2 (4), é evitar em suas relações internacionais a ameaça ou o uso da força contra a integridade territorial ou a independência política de qualquer Estado.</t>
+          <t>A corrente neomalthusiana defende que o crescimento populacional tende a gerar pobreza e fome, pois a população cresceria mais rápido que a produção de alimentos.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O Artigo 2 (4) da Carta da ONU permite que um Estado-membro use a força, desde que tal ação seja compatível com os Propósitos das Nações Unidas.</t>
+          <t>A corrente neomalthusiana acredita que o crescimento populacional gera riqueza automática, pois incentiva a inovação tecnológica na produção de alimentos.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O Artigo 2 (4) exige que os membros evitem a ameaça ou o uso da força contra a integridade territorial ou a independência política de qualquer Estado.</t>
+          <t>Malthus postulava que a população cresce em progressão geométrica e os alimentos em progressão aritmética, gerando escassez.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,32 +546,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 15</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Desde a sua fundação, 192 países ratificaram a Carta da ONU, tornando-se Estados-membros da Organização das Nações Unidas.</t>
+          <t>Críticos da teoria neomalthusiana argumentam que ela desconsidera o progresso tecnológico e os ganhos de escala proporcionados por um mercado maior.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Menos de 100 países ratificaram a Carta da ONU desde sua criação, e a maioria dos países opera como observadores.</t>
+          <t>Críticos da teoria neomalthusiana afirmam que ela errou ao superestimar a capacidade da tecnologia de resolver a escassez de recursos.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Desde então, 192 países ratificaram a Carta da ONU, constituindo-se em Estados-membros.</t>
+          <t>Os críticos apontam que a tecnologia e os ganhos de escala permitem que a produção cresça a taxas elevadas, sustentando populações maiores.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,32 +580,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O sentido comum do Artigo 2 (4) da Carta da ONU, corroborado pela Convenção de Viena de 1969, é que o emprego da força além-fronteiras é categoricamente proibido.</t>
+          <t>Países com população jovem têm maiores gastos com educação e saúde pediátrica, enquanto países envelhecidos gastam mais com previdência e saúde geriátrica.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>O Artigo 2 (4) da Carta da ONU proíbe o uso da força, mas permite exceções discricionárias desde que haja consulta a um membro permanente.</t>
+          <t>A composição etária da população não afeta a direção dos gastos públicos, apenas o volume total de recursos arrecadados.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A interpretação do Artigo 2 (4) é clara: é categoricamente proibido o emprego da força além-fronteiras.</t>
+          <t>A estrutura etária define as demandas sociais predominantes (escolas vs. aposentadorias).</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,32 +614,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança da ONU possui o poder de autorizar o emprego da força para manter ou restabelecer a paz e a segurança internacionais, sendo esta a primeira exceção à proibição do uso da força.</t>
+          <t>Segundo a Teoria do Ciclo de Vida, indivíduos consomem durante toda a vida, mas concentram a geração de renda na fase adulta.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A Assembleia Geral da ONU, e não o Conselho de Segurança, possui o poder de autorizar o emprego da força em situações de ameaça à paz global.</t>
+          <t>A Teoria do Ciclo de Vida postula que o consumo e a renda de um indivíduo são constantes e iguais desde o nascimento até a morte.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O poder de autorizar o emprego da força, para manter ou restabelecer a paz, é conferido ao Conselho de Segurança da ONU.</t>
+          <t>Na infância e velhice, o consumo supera a renda, exigindo transferências ou poupança gerada na fase adulta.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,32 +648,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 16</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Os cinco membros permanentes do Conselho de Segurança (Grã-Bretanha, China, França, Estados Unidos e Rússia) desfrutam do poder de veto sobre qualquer resolução proposta.</t>
+          <t>O Brasil possui, historicamente, uma área de geração de excedente (produção &gt; consumo) relativamente pequena no gráfico do ciclo de vida.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Os membros permanentes do Conselho de Segurança têm voto de qualidade, mas não podem vetar as resoluções que alcançarem nove votos favoráveis.</t>
+          <t>O Brasil possui uma área de geração de excedente muito superior à média mundial, facilitando o financiamento de jovens e idosos.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cada membro permanente tem poder de veto sobre qualquer resolução proposta.</t>
+          <t>As fases de dependência (infância e velhice) são extensas comparadas à fase produtiva, dificultando a poupança nacional.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,32 +682,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág 3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A Assembleia Geral da ONU pode apenas recomendar sanções econômicas ou ações militares, não tendo poderes para autorizá-las.</t>
+          <t>Nas décadas de 1960 e 1970, havia um temor de "explosão demográfica" no Brasil, com previsões de empobrecimento e falta de alimentos.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Embora a Assembleia Geral não possa autorizar ações militares, ela pode impor sanções econômicas de caráter obrigatório.</t>
+          <t>Nas décadas de 1960 e 1970, a maior preocupação demográfica no Brasil era a drástica redução da natalidade que ameaçava extinguir a força de trabalho.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>A Assembleia Geral pode apenas recomendar sanções ou ações militares, não tendo poder para autorizá-las.</t>
+          <t>O crescimento era de quase 3% a.a., gerando previsões malthusianas pessimistas que não se concretizaram.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,32 +716,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A Resolução 221, adotada em relação à Rodésia do Sul, exortou o Reino Unido "a impedir, se necessário pelo uso da força," a chegada de navios-cisterna suspeitos de transportar petróleo destinado ao país.</t>
+          <t>No século XXI, o crescimento populacional brasileiro desacelerou fortemente, ficando abaixo de 1% ao ano na primeira década.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A Resolução 221 impôs um embargo de armas total à Rodésia, mas proibiu expressamente o uso da força pelo Reino Unido.</t>
+          <t>O Brasil continua vivendo uma fase de explosão demográfica, mantendo taxas de crescimento superiores a 2,5% ao ano no século XXI.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A Resolução 221 exortava o Reino Unido "a impedir, se necessário pelo uso da força," a chegada de navios com petróleo para a Rodésia do Sul.</t>
+          <t>A taxa de crescimento caiu para 0,83% a.a. (2000-2010), afastando o risco de superpopulação descontrolada.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,32 +750,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pág 17</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A Resolução 221 é considerada um marco, pois constituiu a provável primeira ocasião em que o Capítulo VII da Carta da ONU foi usado para autorizar o emprego da força.</t>
+          <t>A equação do crescimento populacional é dada por: (Taxa de natalidade - Taxa de mortalidade) + Taxa de migração.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>O Capítulo VII foi usado pela primeira vez de forma inequívoca em 1950, durante a Guerra da Coreia, quando o Conselho de Segurança autorizou as ações militares da coalizão.</t>
+          <t>O crescimento populacional é calculado apenas pela diferença entre nascimentos e óbitos, ignorando os fluxos migratórios.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A Resolução 221 provavelmente constituiu a primeira ocasião em que o Capítulo VII da Carta da ONU veio a ser usado.</t>
+          <t>O crescimento total soma o crescimento vegetativo (nascimentos - óbitos) ao saldo migratório.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,32 +784,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>O período de inatividade do Conselho de Segurança, que coincidiu com a Guerra Fria, chegou ao fim quando o Iraque invadiu e ocupou o Kuwait em 1990.</t>
+          <t>A taxa de fecundidade relaciona o número de nascimentos com o número de mulheres em idade fértil (15 a 44 anos).</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>O período de inatividade do Conselho de Segurança terminou com as ações de manutenção da paz na Bósnia em 1992.</t>
+          <t>A taxa de fecundidade é calculada dividindo-se o número total de nascimentos pela população total do país.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança só retornou à atividade decisória após a invasão e ocupação do Kuwait pelo Iraque em 1990.</t>
+          <t>Fecundidade é uma medida específica sobre o potencial reprodutivo das mulheres, diferente da natalidade bruta.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -818,32 +818,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A Resolução 678 autorizava os países cooperantes a “empregar todos os meios necessários” para expulsar as forças iraquianas, sendo esta formulação destinada a autorizar o emprego da força militar.</t>
+          <t>A redução da mortalidade está ligada a melhorias na nutrição, saneamento, medicina e, crucialmente, à educação das mães.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A Resolução 678, adotada em 1990, apenas impôs sanções econômicas rígidas ao Iraque, mas não continha autorização explícita para o uso de força militar.</t>
+          <t>A redução da mortalidade depende exclusivamente de avanços na medicina curativa, não sendo afetada por saneamento ou educação.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A formulação “empregar todos os meios necessários” destinava-se claramente a autorizar o emprego da força militar.</t>
+          <t>Fatores socioeconômicos e preventivos (como saneamento e educação materna) são determinantes na queda da mortalidade.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -852,32 +852,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 18</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A Operação Tempestade no Deserto foi um sucesso estrondoso que reforçou a autoridade do Conselho de Segurança e refletiu um exercício de multilateralismo global.</t>
+          <t>O aumento dos custos de criação dos filhos e o custo de oportunidade no mercado de trabalho contribuem para a queda da fecundidade.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A Operação Tempestade no Deserto foi um sucesso militar, mas foi criticada por enfraquecer o multilateralismo e a autoridade do Conselho de Segurança.</t>
+          <t>Em economias modernas, ter muitos filhos é visto como um investimento financeiro de curto prazo, o que aumenta a fecundidade.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A Operação Tempestade no Deserto foi um estrondoso sucesso que reforçou a autoridade do Conselho de Segurança e o multilateralismo global.</t>
+          <t>Filhos passaram a representar custos elevados e limitam a mobilidade laboral, desincentivando famílias numerosas.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -886,32 +886,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Durante a Guerra da Bósnia, a maioria dos funcionários governamentais e jornalistas adotou o eufemismo sérvio “limpeza étnica” para evitar o clamor público do termo “genocídio”.</t>
+          <t>Uma população é considerada "fechada" quando seu crescimento depende apenas do crescimento vegetativo (nascimentos menos óbitos).</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Os governos ocidentais usaram o termo "genocídio" de forma precisa e frequente na Bósnia para mobilizar a opinião pública em favor de uma intervenção militar.</t>
+          <t>Uma população "fechada" é aquela que proíbe a emigração, mas incentiva a entrada de estrangeiros para compor a força de trabalho.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>O termo "limpeza étnica" foi um eufemismo adotado para evitar o termo "genocídio", que tinha uma ressonância moral mais forte.</t>
+          <t>O conceito demográfico de população fechada refere-se à ausência de fluxos migratórios significativos afetando o total.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -920,32 +920,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág 6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O embargo de armas imposto à antiga Iugoslávia pela Resolução 713 (Capítulo VII) foi prejudicial, pois manteve o desequilíbrio militar entre as forças sérvias e os muçulmanos da Bósnia.</t>
+          <t>No final do século XIX, a imigração foi crucial para o Brasil, explicando cerca de 30% do crescimento populacional na década de 1890.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>O embargo de armas foi eficaz na Bósnia, pois impediu que as milícias sérvias obtivessem armas pesadas e restaurou o equilíbrio militar na região.</t>
+          <t>A imigração nunca teve papel relevante no crescimento quantitativo da população brasileira, sendo apenas um fenômeno cultural.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>O embargo contribuiu para manter o desequilíbrio militar entre as forças sérvias, bem armadas, e os muçulmanos não tão bem armados da Bósnia.</t>
+          <t>O Brasil tinha uma "população aberta" até 1930, com forte entrada de imigrantes (italianos, portugueses, etc.).</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -954,32 +954,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 19</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança criou o Tribunal Penal Internacional para a antiga Iugoslávia (ICTY) sob o Capítulo VII, o que lhe conferiu jurisdição imediata sem necessitar do consentimento individual dos países.</t>
+          <t>Na Fase B da transição demográfica, a mortalidade cai rapidamente enquanto a natalidade segue alta, gerando forte crescimento populacional.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>O Tribunal Penal Internacional para a antiga Iugoslávia (ICTY) foi criado por um tratado em 1993, necessitando da ratificação dos países da região para ter jurisdição.</t>
+          <t>Na Fase B da transição demográfica, a natalidade cai antes da mortalidade, gerando uma redução temporária da população.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>O ICTY foi criado por uma resolução escorada no Capítulo VII e sua jurisdição teve efeito imediato, sem necessidade de consentimento individualmente dado pelos países.</t>
+          <t>O descompasso entre a queda rápida da mortalidade e a manutenção da natalidade alta gera a "explosão" de crescimento.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -988,32 +988,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág 7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>O bombardeio da OTAN em 1993 contra alvos sérvios na Bósnia foi promovido sob o mandato complexo da Resolução 836 do Conselho de Segurança.</t>
+          <t>A Fase C da transição demográfica é marcada pela queda da natalidade, que se aproxima da taxa de mortalidade, estabilizando o crescimento.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>O bombardeio da OTAN em 1993 foi uma ação unilateral, não relacionada a qualquer mandato ou cooperação com a ONU.</t>
+          <t>A Fase C é caracterizada pelo retorno de altas taxas de mortalidade devido ao envelhecimento, superando a natalidade.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>O bombardeio da OTAN foi promovido de acordo com um complexo mandato, conferido através da Resolução 836 do Conselho de Segurança da ONU.</t>
+          <t>A estabilização ocorre quando ambas as taxas (natalidade e mortalidade) atingem níveis baixos.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1022,32 +1022,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>O massacre de mais de sete mil homens e meninos muçulmanos em Srebrenica, em 1995, foi confirmado pelo Tribunal Penal Internacional para a antiga Iugoslávia (ICTY) como um ato de genocídio.</t>
+          <t>Com a transição demográfica, houve uma mudança no perfil de mortalidade: de doenças infectocontagiosas para crônico-degenerativas.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>O ICTY reverteu a condenação inicial de Radislav Krstic, concluindo que o massacre de Srebrenica, embora grave, não cumpria os requisitos legais para ser classificado como genocídio.</t>
+          <t>A transição demográfica aumentou a incidência de mortes por doenças infectocontagiosas devido à urbanização descontrolada.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Em 2001, o ICTY confirmou que o massacre em Srebrenica, onde mais de sete mil foram mortos, constituíra ato de genocídio.</t>
+          <t>O avanço sanitário reduziu as infecções, fazendo com que as pessoas vivam mais e morram de doenças associadas à idade (câncer, circulatórias).</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1056,36 +1056,512 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lei da Guerra</t>
+          <t>Economia Brasileira Contemporânea</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pág 20</t>
+          <t>Pág 8</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cap. 1 - Autorização do Conselho de Segurança</t>
+          <t>Cap. 1 – Aspectos Demográficos</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A promotora Carla del Ponte criticou a falta de vontade política dos governos de países-membros da OTAN para capturar os principais acusados foragidos, como Radovan Karadzic e Ratko Mladic.</t>
+          <t>A esperança de vida ao nascer indica a média de anos que se espera que uma pessoa viva, refletindo as condições de saúde de uma região.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A crítica de Carla del Ponte foi principalmente dirigida à ineficácia do Tribunal Penal Internacional para a antiga Iugoslávia em manter os réus sob custódia após o julgamento.</t>
+          <t>A esperança de vida ao nascer determina a idade máxima biológica que um ser humano pode atingir em um país.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Carla del Ponte criticou a ausência de vontade política dos governos para levar os principais acusados ao banco dos réus.</t>
+          <t>É um indicador estatístico médio das condições de mortalidade, não um limite biológico máximo.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pág 9</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>As tábuas de mortalidade permitem calcular a expectativa de vida condicional, ou seja, quanto tempo mais uma pessoa deve viver dada sua idade atual.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>As tábuas de mortalidade mostram apenas a expectativa de vida ao nascer, sendo inúteis para calcular a sobrevida de idosos.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>A expectativa de vida aumenta à medida que o indivíduo sobrevive às idades de risco (expectativa condicional).</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pág 10</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Apesar da queda histórica, a mortalidade infantil no Brasil ainda é superior à de países desenvolvidos.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>A mortalidade infantil no Brasil atingiu níveis idênticos aos dos países mais desenvolvidos da Europa.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>A taxa brasileira (~12/1000) caiu muito, mas ainda é quase o dobro da de países desenvolvidos (&lt;7/1000).</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pág 12</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>A pandemia de Covid-19 elevou a taxa bruta de mortalidade no Brasil de cerca de 6 para 8,5 por mil habitantes em 2021.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>A pandemia de Covid-19 não alterou estatisticamente a taxa geral de mortalidade do Brasil, afetando apenas grupos isolados.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Houve um aumento de mais de 40% na taxa de mortalidade geral devido ao excesso de óbitos na pandemia.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pág 13</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Em 2021, devido à pandemia, as doenças infecciosas e parasitárias tornaram-se temporariamente a principal causa de morte no Brasil.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Mesmo durante o auge da pandemia, as doenças do aparelho circulatório continuaram sendo a principal causa de morte no Brasil.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>A Covid-19 fez com que as doenças infecciosas saltassem de 5% para 27% dos óbitos, liderando as causas.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pág 14</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>A entrada da mulher no mercado de trabalho e a disseminação de contraceptivos foram fatores decisivos para a queda da fecundidade.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>A queda da fecundidade no Brasil deve-se principalmente a políticas governamentais de controle de natalidade, como a lei do filho único.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>A mudança foi comportamental e socioeconômica (custo de oportunidade e autonomia reprodutiva), não imposta pelo Estado.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A taxa de fecundidade brasileira (cerca de 1,7) já se encontra abaixo da taxa de reposição populacional (2,1).</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>A taxa de fecundidade brasileira permanece acima da taxa de reposição, garantindo crescimento populacional indefinido.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Taxas abaixo de 2,1 indicam que, no longo prazo, a população tende a parar de crescer e diminuir.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pág 15</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A transição demográfica brasileira foi muito rápida, completando-se em meio século, tempo menor que nos países desenvolvidos.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>A transição demográfica brasileira foi lenta e gradual, levando dois séculos para atingir o estágio atual.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>A passagem da alta para a baixa fecundidade/mortalidade ocorreu de forma acelerada entre 1940 e 2000.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pág 16</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>O Brasil passa por um rápido envelhecimento, com a proporção de idosos crescendo e a de crianças diminuindo drasticamente.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>A estrutura etária brasileira permanece estável desde 1960, mantendo-se como um país predominantemente jovem.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>A base da pirâmide (jovens) encolheu e o topo (idosos) alargou significativamente nas últimas décadas.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pág 17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A projeção da pirâmide etária para 2050 mostra uma inversão, com o topo mais largo que a base.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>A projeção para 2050 mostra uma pirâmide com base extremamente larga, indicando um novo "baby boom".</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>A tendência é de envelhecimento profundo, típico de pirâmides invertidas (muitos idosos, poucos nascimentos).</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pág 23</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>O bônus demográfico ocorre quando a razão de dependência é baixa, com alta proporção de pessoas em idade ativa.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>O bônus demográfico acontece quando a população idosa supera a população jovem, aumentando os gastos com previdência.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>O "bônus" é a janela de oportunidade econômica gerada por ter muita gente trabalhando e poucos dependentes para sustentar.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pág 23</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>O envelhecimento populacional pressiona fiscalmente os sistemas de previdência e saúde pública.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>O envelhecimento populacional gera superávits na previdência, pois idosos consomem menos recursos públicos.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mais idosos significam mais beneficiários de aposentadoria e maior uso de serviços de saúde caros, pressionando o orçamento.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pág 24</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>O êxodo rural entre 1950 e 1990 transferiu mais de 40 milhões de pessoas do campo para as cidades, impulsionado pela industrialização.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>A principal migração do século XX foi o fluxo urbano-rural, com pessoas deixando as cidades para trabalhar na agricultura.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>A industrialização atraiu massas para as cidades, esvaziando o campo (êxodo rural).</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pág 25</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>As fronteiras agrícolas (como no Centro-Oeste e Norte) atraem migrantes, deslocando parte da população para o interior.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>A expansão da fronteira agrícola não gera fluxos migratórios, pois a agricultura moderna não utiliza mão de obra.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>A abertura de novas áreas produtivas cria oportunidades que atraem fluxos populacionais significativos.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Economia Brasileira Contemporânea</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Pág 25</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Cap. 1 – Aspectos Demográficos</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>A migração recente para a Região Norte é predominantemente urbana, dirigindo-se às cidades e não apenas à zona rural.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Quem migra para a Região Norte atualmente vai exclusivamente para viver na floresta ou em áreas rurais isoladas.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>O processo de ocupação da fronteira agrícola atual é acompanhado por forte urbanização local.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
